--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624774.208596681</v>
+        <v>1675031.545906941</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6318727.5235747</v>
+        <v>6334448.567206327</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>278.2258604700204</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>75.22495458185921</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>47.9238792205035</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>266.4072393609993</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>430.4313829879808</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.484581935008</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>7.264602967362461</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>233.2748649396107</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>192.5216342577807</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>38.92859933434407</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>50.60586326124515</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>16.92574903168927</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537902</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089135</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>104.6990987647606</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819019141</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>238.3929776382654</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.67077719907154</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>80.61608517870623</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>8.90924533663209</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>253.5681788415984</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2008,13 +2008,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>102.5724179071763</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>16.92574903168994</v>
       </c>
     </row>
     <row r="20">
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>54.66258501924955</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>75.86622810093053</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>22.56919457453911</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>86.27769679771725</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2770,16 +2770,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.01098805494587</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436913</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>82.43648595644012</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3427,10 +3427,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>235.7170969895078</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>67.42894579208246</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>129.7139627068461</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4785282930371</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002099</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3901,22 +3901,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>120.1472970361161</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>248.9778919109216</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>274.8577999327495</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4144,7 +4144,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>29.18607610565362</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>30.80549757377439</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.8743158913576</v>
+        <v>446.6636486630778</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>412.5615798869051</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>380.6921991017537</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>350.9578583004529</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>327.1308327500647</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>327.1308327500647</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307438</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021438</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381415</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381415</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381415</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381415</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381415</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1568.238183299068</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2114.736969257662</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010719</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010719</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2063.823806883758</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2063.823806883758</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1701.206856817584</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1700.391806269022</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1281.249342848332</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.1334823358613</v>
+        <v>872.9632191479856</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.4134728640019</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021438</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067198</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245373</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.8484307043673</v>
+        <v>355.3074402309035</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>182.7457287141285</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>134.3377699055391</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>134.3377699055391</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.3377699055391</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.3377699055391</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.3377699055391</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021438</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021438</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>196.7623387080774</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>614.9722204760385</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1074.456087656951</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1516.714890814596</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1936.384140040378</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010719</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010719</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716091</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2103.231844014088</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1857.352397592543</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1578.919396845648</v>
       </c>
       <c r="V4" t="n">
-        <v>1428.08520850365</v>
+        <v>1291.963888716078</v>
       </c>
       <c r="W4" t="n">
-        <v>1156.058804089942</v>
+        <v>1019.93748430237</v>
       </c>
       <c r="X4" t="n">
-        <v>910.6670494233545</v>
+        <v>774.5457296357824</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.6670494233545</v>
+        <v>547.1260589498906</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>226.3304742981165</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>60.73919932394418</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1461.55225337374</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1216.160498707152</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>1581.337547761512</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.75587349878</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>724.8884439079882</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.7206514241503</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>89.90148899448771</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.332608038895</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>1110.377099909325</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>838.3506954956167</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X10" t="n">
-        <v>592.9589408290292</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.5392701431375</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
@@ -5030,7 +5030,7 @@
         <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
         <v>97.15276605397518</v>
@@ -5045,22 +5045,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5075,16 +5075,16 @@
         <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5176,16 +5176,16 @@
         <v>1087.134188067672</v>
       </c>
       <c r="C13" t="n">
-        <v>914.572476550897</v>
+        <v>914.5724765508971</v>
       </c>
       <c r="D13" t="n">
         <v>748.6944837524197</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031569</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>402.2294259649132</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
         <v>236.6381509907407</v>
@@ -5224,22 +5224,22 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2607.638921164964</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2361.75947474342</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2083.326473996525</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1796.370965866955</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W13" t="n">
-        <v>1524.344561453247</v>
+        <v>1751.764232139139</v>
       </c>
       <c r="X13" t="n">
-        <v>1278.952806786659</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y13" t="n">
         <v>1278.952806786659</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1462.256484342599</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>1028.481739500894</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397518</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.798049006192</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="15">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1003.232425776222</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
         <v>667.5964292284815</v>
@@ -5458,25 +5458,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2226.844382390966</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1939.888874261397</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1667.862469847688</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1422.470715181101</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
         <v>1195.051044495209</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181336</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.88298236476</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548905</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781543</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742884</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953175</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953175</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953175</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523481</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356878</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315472</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252366</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125404</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442421</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376246</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.75361278728</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366591</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666244</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818282</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.9007332463585</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>773.3390217295835</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>607.4610289311062</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>607.4610289311062</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>430.7539748928624</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563207</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157196</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2693.825137029542</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2447.945690607998</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U19" t="n">
-        <v>2169.512689861103</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V19" t="n">
-        <v>1882.557181731533</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1610.530777317825</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X19" t="n">
-        <v>1365.139022651237</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1137.719351965346</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5890,16 +5890,16 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674083</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>673.1212928181455</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057296</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5908,19 +5908,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354692</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066048</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
         <v>2203.220781338905</v>
@@ -5932,16 +5932,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2642.287896536275</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2396.40845011473</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
         <v>2117.975449367836</v>
@@ -5996,13 +5996,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957669</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789919</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6245,7 +6245,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>926.1484743011861</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F28" t="n">
         <v>496.4142387799021</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1454.96690046523</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6601,10 +6601,10 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6658,13 +6658,13 @@
         <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X31" t="n">
         <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="32">
@@ -6707,13 +6707,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569359</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6935,52 +6935,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309359</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
+        <v>330.8229638057297</v>
+      </c>
+      <c r="H37" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
-      <c r="H37" t="n">
-        <v>102.2608402707798</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102.2608402707798</v>
-      </c>
       <c r="J37" t="n">
-        <v>188.8405254354697</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1264.921293739799</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309359</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722097</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640441</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G41" t="n">
-        <v>389.543623087308</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>382.9062805169174</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>382.9062805169174</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>382.9062805169174</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>1539.954115727468</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163915</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734222</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567618</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526212</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526212</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526212</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.05875148274</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733583</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144617</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723928</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218171</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050126</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319663</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143118</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909818</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223595</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015802</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.4894846535088</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C43" t="n">
-        <v>615.9277731367338</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D43" t="n">
-        <v>494.5668670396468</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E43" t="n">
-        <v>494.5668670396468</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396468</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654744</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558489</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663497</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343109</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372869</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436693</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015148</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138684</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724975</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1207.727774058388</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>980.3081033724959</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2511.879170851552</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C44" t="n">
-        <v>2073.736698034976</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1637.82691320942</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.052168367715</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>776.184738776923</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G44" t="n">
-        <v>374.7869074001869</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7658,40 +7658,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239597</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112636</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U44" t="n">
-        <v>4533.079733112636</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V44" t="n">
-        <v>4170.462783046462</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W44" t="n">
-        <v>3765.607328457496</v>
+        <v>3590.036899590673</v>
       </c>
       <c r="X44" t="n">
-        <v>3346.464865036807</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y44" t="n">
-        <v>2938.17874133646</v>
+        <v>2762.608312469637</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
         <v>1102.064021433509</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>999.0870832547528</v>
+        <v>944.0533615061028</v>
       </c>
       <c r="C46" t="n">
-        <v>826.5253717379777</v>
+        <v>944.0533615061028</v>
       </c>
       <c r="D46" t="n">
-        <v>660.6473789395004</v>
+        <v>778.1753687076255</v>
       </c>
       <c r="E46" t="n">
-        <v>490.8893751902377</v>
+        <v>608.4173649583627</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>431.7103109201189</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>266.1190359459465</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>126.216861636321</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289286</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418843</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875565</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X46" t="n">
-        <v>1418.325372659632</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y46" t="n">
-        <v>1190.90570197374</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709924</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320289</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705687</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111827</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.3462747337305</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.0111327346207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.0111327346204</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>52.94985625022272</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.0953302292547</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>185.195777656619</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.14457787892982</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>195.0325855607195</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>216.2362286424007</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>177.9825081357015</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>61.36294431725433</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
     </row>
     <row r="20">
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>102.9863699957338</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>208.2197249473433</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>141.6500182959534</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>81.78272691405286</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957344</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>201.6494670918337</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>33.58904338006354</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25597,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>90.22000922290084</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.38802656265464</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>44.07191583437638</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>184.7831561774893</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>11.38105307846638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>58.58727362741779</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>212.1323395461473</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>548411.6130811109</v>
+        <v>551420.0600312036</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>548411.6130811109</v>
+        <v>553400.2139041778</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>548411.6130811109</v>
+        <v>553400.2139041778</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531313.3020106355</v>
+        <v>531313.3020106357</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>538810.6494314803</v>
+        <v>553735.3304967724</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>553735.3304967724</v>
+        <v>553735.3304967723</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546237.9830759277</v>
+        <v>531313.3020106354</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531313.3020106357</v>
+        <v>531313.3020106354</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>402110.4899178064</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
         <v>379142.9234787573</v>
       </c>
       <c r="F2" t="n">
-        <v>379142.9234787572</v>
+        <v>379142.9234787573</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.9988650086</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030142</v>
@@ -26338,22 +26338,22 @@
         <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="N2" t="n">
         <v>395143.1881030141</v>
       </c>
-      <c r="N2" t="n">
-        <v>395143.1881030142</v>
-      </c>
       <c r="O2" t="n">
-        <v>389793.1127167628</v>
+        <v>379142.9234787573</v>
       </c>
       <c r="P2" t="n">
-        <v>379142.9234787573</v>
+        <v>379142.9234787571</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476936</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.034937459</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284872</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996504</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256751</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393324</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>150872.0522070761</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.91713981288</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26448,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.24777051769</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="P4" t="n">
-        <v>26563.08616012789</v>
+        <v>26563.08616012788</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696293</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024163</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319843</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19062.01466041193</v>
+        <v>-8450.409753926273</v>
       </c>
       <c r="C6" t="n">
-        <v>161253.3153201219</v>
+        <v>165950.6301865698</v>
       </c>
       <c r="D6" t="n">
-        <v>161253.315320122</v>
+        <v>197140.6651240288</v>
       </c>
       <c r="E6" t="n">
-        <v>44705.47301894445</v>
+        <v>117248.8612760706</v>
       </c>
       <c r="F6" t="n">
-        <v>279060.4950409818</v>
+        <v>278983.936486185</v>
       </c>
       <c r="G6" t="n">
-        <v>276302.5258821053</v>
+        <v>270789.1184454716</v>
       </c>
       <c r="H6" t="n">
-        <v>277338.1157670539</v>
+        <v>289717.6464076363</v>
       </c>
       <c r="I6" t="n">
-        <v>289740.870747019</v>
+        <v>289717.6464076363</v>
       </c>
       <c r="J6" t="n">
-        <v>178726.4054020288</v>
+        <v>140326.0499819612</v>
       </c>
       <c r="K6" t="n">
-        <v>289740.870747019</v>
+        <v>264870.7096237031</v>
       </c>
       <c r="L6" t="n">
-        <v>289740.870747019</v>
+        <v>289717.6464076363</v>
       </c>
       <c r="M6" t="n">
-        <v>94139.69146395114</v>
+        <v>154727.701794633</v>
       </c>
       <c r="N6" t="n">
-        <v>289740.870747019</v>
+        <v>289717.6464076362</v>
       </c>
       <c r="O6" t="n">
-        <v>286169.6288630467</v>
+        <v>278983.936486185</v>
       </c>
       <c r="P6" t="n">
-        <v>279060.4950409819</v>
+        <v>278983.9364861849</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517719</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517719</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517719</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>8.012992541195501</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>328.9783078814839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>116.295333649989</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>17.67871368727458</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>3.329665100430077</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>131.2385495991668</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>36.03127542996069</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>229.514940522278</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>392.6220876429558</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>120.2302311403622</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
     </row>
     <row r="11">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709924</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026798</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320289</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705687</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111827</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36048,16 +36048,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908043</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,16 +36364,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36613,7 +36613,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-5.881569965118661e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>-5.881569965118661e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,16 +37075,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.3462747337305</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080417</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
